--- a/file/datasrc.xlsx
+++ b/file/datasrc.xlsx
@@ -9,21 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17415" windowHeight="9885" tabRatio="599"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17415" windowHeight="9885" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="35" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="36" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="37" r:id="rId3"/>
-    <sheet name="15护34" sheetId="8" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="38" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="35" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="36" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="37" r:id="rId4"/>
+    <sheet name="15护34" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$M$40</definedName>
+  </definedNames>
+  <calcPr calcId="152511" iterate="1"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="107">
   <si>
     <t>课表信息</t>
   </si>
@@ -426,12 +430,132 @@
     <t>张孝良</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>黄峰等</t>
+  </si>
+  <si>
+    <t>外科护理学1实验（10-16周）（第10,13,16周1/2组，第11，14,15周3/4组，第12周5/6组）4节连排</t>
+  </si>
+  <si>
+    <t>【外科实验室】</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6,7,8</t>
+  </si>
+  <si>
+    <t>外科护理学1实验（10-16周）（第10,12周3/4组，11,13-16周5/6组）</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外科护理学1实验（10周）（3/4组）4节连排</t>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外科护理学1实验（11-16周）（第11-12,14-15周1/2组，第13,16周3/4组）</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,6</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕炜</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>张孝良</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5至8节</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -512,6 +636,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -685,7 +823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +905,111 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -791,34 +1034,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,14 +1346,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="47.25" customWidth="1"/>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="4.75" customWidth="1"/>
+    <col min="8" max="8" width="4.875" customWidth="1"/>
+    <col min="9" max="9" width="5.375" customWidth="1"/>
+    <col min="10" max="10" width="5.875" customWidth="1"/>
+    <col min="11" max="11" width="5.75" customWidth="1"/>
+    <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1650,29 +1876,30 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
+      <c r="C20" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="28">
+        <v>4</v>
+      </c>
+      <c r="G20" s="28">
         <v>10</v>
       </c>
-      <c r="I20" t="s">
-        <v>50</v>
+      <c r="H20" s="28"/>
+      <c r="I20" s="41" t="s">
+        <v>89</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1688,20 +1915,20 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>48</v>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -1709,8 +1936,8 @@
       <c r="G21">
         <v>10</v>
       </c>
-      <c r="I21" t="s">
-        <v>63</v>
+      <c r="I21" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1726,29 +1953,30 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
+      <c r="C22" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="28">
+        <v>4</v>
+      </c>
+      <c r="G22" s="28">
         <v>10</v>
       </c>
-      <c r="I22" t="s">
-        <v>55</v>
+      <c r="H22" s="28"/>
+      <c r="I22" s="41" t="s">
+        <v>94</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1764,20 +1992,20 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>48</v>
+      <c r="A23" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -1785,8 +2013,8 @@
       <c r="G23">
         <v>11</v>
       </c>
-      <c r="I23" t="s">
-        <v>55</v>
+      <c r="I23" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1802,35 +2030,35 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="36" t="s">
+      <c r="A24" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="36">
-        <v>4</v>
-      </c>
-      <c r="G24" s="36">
+      <c r="C24" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="28">
+        <v>4</v>
+      </c>
+      <c r="G24" s="28">
         <v>11</v>
       </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="36">
-        <v>2</v>
-      </c>
-      <c r="K24" s="36">
+      <c r="H24" s="28"/>
+      <c r="I24" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="28">
+        <v>2</v>
+      </c>
+      <c r="K24" s="28">
         <v>1</v>
       </c>
       <c r="L24" s="26" t="s">
@@ -1841,20 +2069,20 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>48</v>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="F25">
         <v>4</v>
@@ -1862,8 +2090,8 @@
       <c r="G25">
         <v>11</v>
       </c>
-      <c r="I25" t="s">
-        <v>63</v>
+      <c r="I25" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -1879,20 +2107,20 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>48</v>
+      <c r="A26" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -1900,8 +2128,8 @@
       <c r="G26">
         <v>12</v>
       </c>
-      <c r="I26" t="s">
-        <v>55</v>
+      <c r="I26" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="J26">
         <v>5</v>
@@ -1917,35 +2145,35 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="36" t="s">
+      <c r="A27" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="36">
-        <v>4</v>
-      </c>
-      <c r="G27" s="36">
+      <c r="C27" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="28">
+        <v>4</v>
+      </c>
+      <c r="G27" s="28">
         <v>12</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="36">
+      <c r="H27" s="28"/>
+      <c r="I27" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="28">
         <v>5</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="28">
         <v>6</v>
       </c>
       <c r="L27" s="26" t="s">
@@ -1956,20 +2184,20 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>48</v>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -1977,8 +2205,8 @@
       <c r="G28">
         <v>12</v>
       </c>
-      <c r="I28" t="s">
-        <v>63</v>
+      <c r="I28" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -1994,20 +2222,20 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>48</v>
+      <c r="A29" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="F29">
         <v>4</v>
@@ -2015,8 +2243,8 @@
       <c r="G29">
         <v>13</v>
       </c>
-      <c r="I29" t="s">
-        <v>55</v>
+      <c r="I29" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="J29">
         <v>6</v>
@@ -2032,35 +2260,35 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="36" t="s">
+      <c r="A30" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="36">
-        <v>4</v>
-      </c>
-      <c r="G30" s="36">
+      <c r="C30" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="28">
+        <v>4</v>
+      </c>
+      <c r="G30" s="28">
         <v>13</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" s="36">
+      <c r="H30" s="28"/>
+      <c r="I30" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="28">
         <v>6</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="28">
         <v>5</v>
       </c>
       <c r="L30" s="26" t="s">
@@ -2071,20 +2299,20 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>48</v>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -2092,8 +2320,8 @@
       <c r="G31">
         <v>13</v>
       </c>
-      <c r="I31" t="s">
-        <v>63</v>
+      <c r="I31" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="J31">
         <v>6</v>
@@ -2109,20 +2337,20 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>48</v>
+      <c r="A32" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="F32">
         <v>4</v>
@@ -2130,8 +2358,8 @@
       <c r="G32">
         <v>14</v>
       </c>
-      <c r="I32" t="s">
-        <v>55</v>
+      <c r="I32" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -2147,35 +2375,35 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="36" t="s">
+      <c r="A33" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="36">
-        <v>4</v>
-      </c>
-      <c r="G33" s="36">
+      <c r="C33" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="28">
+        <v>4</v>
+      </c>
+      <c r="G33" s="28">
         <v>14</v>
       </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="J33" s="36">
+      <c r="H33" s="28"/>
+      <c r="I33" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="28">
         <v>3</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="28">
         <v>3</v>
       </c>
       <c r="L33" s="26" t="s">
@@ -2186,20 +2414,20 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>48</v>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="F34">
         <v>4</v>
@@ -2207,7 +2435,7 @@
       <c r="G34">
         <v>14</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="26" t="s">
         <v>63</v>
       </c>
       <c r="J34">
@@ -2224,20 +2452,20 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>48</v>
+      <c r="A35" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -2245,8 +2473,8 @@
       <c r="G35">
         <v>15</v>
       </c>
-      <c r="I35" t="s">
-        <v>55</v>
+      <c r="I35" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="J35">
         <v>4</v>
@@ -2262,35 +2490,35 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="36" t="s">
+      <c r="A36" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="36">
-        <v>4</v>
-      </c>
-      <c r="G36" s="36">
+      <c r="C36" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="28">
+        <v>4</v>
+      </c>
+      <c r="G36" s="28">
         <v>15</v>
       </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="J36" s="36">
-        <v>4</v>
-      </c>
-      <c r="K36" s="36">
+      <c r="H36" s="28"/>
+      <c r="I36" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" s="28">
+        <v>4</v>
+      </c>
+      <c r="K36" s="28">
         <v>4</v>
       </c>
       <c r="L36" s="26" t="s">
@@ -2301,20 +2529,20 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>48</v>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="F37">
         <v>4</v>
@@ -2322,7 +2550,7 @@
       <c r="G37">
         <v>15</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="26" t="s">
         <v>63</v>
       </c>
       <c r="J37">
@@ -2339,20 +2567,20 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>48</v>
+      <c r="A38" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -2360,8 +2588,8 @@
       <c r="G38">
         <v>16</v>
       </c>
-      <c r="I38" t="s">
-        <v>55</v>
+      <c r="I38" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="J38">
         <v>7</v>
@@ -2377,29 +2605,30 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="A39" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39">
+      <c r="C39" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="28">
+        <v>4</v>
+      </c>
+      <c r="G39" s="28">
         <v>16</v>
       </c>
-      <c r="I39" t="s">
-        <v>50</v>
+      <c r="H39" s="28"/>
+      <c r="I39" s="41" t="s">
+        <v>96</v>
       </c>
       <c r="J39">
         <v>7</v>
@@ -2415,20 +2644,20 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>48</v>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -2436,7 +2665,7 @@
       <c r="G40">
         <v>16</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="26" t="s">
         <v>63</v>
       </c>
       <c r="J40">
@@ -2453,6 +2682,1639 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="4.75" customWidth="1"/>
+    <col min="8" max="8" width="4.875" customWidth="1"/>
+    <col min="9" max="9" width="5.375" customWidth="1"/>
+    <col min="10" max="10" width="5.875" customWidth="1"/>
+    <col min="11" max="11" width="5.75" customWidth="1"/>
+    <col min="12" max="13" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>14</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>16</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="61">
+        <v>4</v>
+      </c>
+      <c r="G20" s="61">
+        <v>10</v>
+      </c>
+      <c r="I20" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="61">
+        <v>1</v>
+      </c>
+      <c r="K20" s="61">
+        <v>2</v>
+      </c>
+      <c r="L20" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="M20" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" s="61">
+        <f t="shared" ref="N20:O26" si="0">MATCH(L20,$Q20:$T20,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q20" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="R20" s="61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="61">
+        <v>4</v>
+      </c>
+      <c r="G21" s="61">
+        <v>10</v>
+      </c>
+      <c r="I21" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="61">
+        <v>1</v>
+      </c>
+      <c r="K21" s="61">
+        <v>2</v>
+      </c>
+      <c r="L21" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21" s="61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O21" s="61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R21" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="S21" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="61">
+        <v>4</v>
+      </c>
+      <c r="G22" s="61">
+        <v>10</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="61">
+        <v>1</v>
+      </c>
+      <c r="K22" s="61">
+        <v>2</v>
+      </c>
+      <c r="L22" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="M22" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="N22" s="61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O22" s="61">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="S22" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="T22" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="61">
+        <v>4</v>
+      </c>
+      <c r="G23" s="61">
+        <v>11</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="61">
+        <v>3</v>
+      </c>
+      <c r="K23" s="61">
+        <v>3</v>
+      </c>
+      <c r="L23" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="N23" s="61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="61">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q23" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="T23" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="61">
+        <v>4</v>
+      </c>
+      <c r="G24" s="61">
+        <v>11</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="61">
+        <v>2</v>
+      </c>
+      <c r="K24" s="61">
+        <v>1</v>
+      </c>
+      <c r="L24" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N24" s="61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O24" s="61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R24" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="S24" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="61">
+        <v>4</v>
+      </c>
+      <c r="G25" s="61">
+        <v>11</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" s="61">
+        <v>3</v>
+      </c>
+      <c r="K25" s="61">
+        <v>3</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="N25" s="61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O25" s="61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="Q25" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="R25" s="61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="61">
+        <v>4</v>
+      </c>
+      <c r="G26" s="61">
+        <v>12</v>
+      </c>
+      <c r="I26" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="61">
+        <v>4</v>
+      </c>
+      <c r="K26" s="61">
+        <v>4</v>
+      </c>
+      <c r="L26" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N26" s="61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O26" s="61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="R26" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="S26" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="61">
+        <v>4</v>
+      </c>
+      <c r="G27" s="61">
+        <v>12</v>
+      </c>
+      <c r="I27" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="61">
+        <v>2</v>
+      </c>
+      <c r="K27" s="61">
+        <v>1</v>
+      </c>
+      <c r="L27" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="N27" s="61">
+        <f t="shared" ref="N27:N40" si="1">MATCH(L27,$Q27:$T27,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O27" s="61">
+        <f t="shared" ref="O27:O40" si="2">MATCH(M27,$Q27:$T27,0)</f>
+        <v>4</v>
+      </c>
+      <c r="Q27" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="T27" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="61">
+        <v>4</v>
+      </c>
+      <c r="G28" s="61">
+        <v>12</v>
+      </c>
+      <c r="I28" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="61">
+        <v>3</v>
+      </c>
+      <c r="K28" s="61">
+        <v>3</v>
+      </c>
+      <c r="L28" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="N28" s="61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="61">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q28" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="R28" s="61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="61">
+        <v>4</v>
+      </c>
+      <c r="G29" s="61">
+        <v>13</v>
+      </c>
+      <c r="I29" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="61">
+        <v>4</v>
+      </c>
+      <c r="K29" s="61">
+        <v>4</v>
+      </c>
+      <c r="L29" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="M29" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="N29" s="61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O29" s="61">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q29" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="T29" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="61">
+        <v>4</v>
+      </c>
+      <c r="G30" s="61">
+        <v>13</v>
+      </c>
+      <c r="I30" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" s="61">
+        <v>2</v>
+      </c>
+      <c r="K30" s="61">
+        <v>1</v>
+      </c>
+      <c r="L30" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N30" s="61">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O30" s="61">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R30" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="S30" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="61">
+        <v>4</v>
+      </c>
+      <c r="G31" s="61">
+        <v>13</v>
+      </c>
+      <c r="I31" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="J31" s="61">
+        <v>4</v>
+      </c>
+      <c r="K31" s="61">
+        <v>4</v>
+      </c>
+      <c r="L31" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="M31" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="N31" s="61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O31" s="61">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q31" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="T31" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="61">
+        <v>4</v>
+      </c>
+      <c r="G32" s="61">
+        <v>14</v>
+      </c>
+      <c r="I32" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="61">
+        <v>5</v>
+      </c>
+      <c r="K32" s="61">
+        <v>5</v>
+      </c>
+      <c r="L32" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="M32" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N32" s="61">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O32" s="61">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R32" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="S32" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="61">
+        <v>4</v>
+      </c>
+      <c r="G33" s="61">
+        <v>14</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="61">
+        <v>5</v>
+      </c>
+      <c r="K33" s="61">
+        <v>5</v>
+      </c>
+      <c r="L33" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="M33" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="N33" s="61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="61">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q33" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="T33" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="61">
+        <v>4</v>
+      </c>
+      <c r="G34" s="61">
+        <v>14</v>
+      </c>
+      <c r="I34" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="61">
+        <v>5</v>
+      </c>
+      <c r="K34" s="61">
+        <v>5</v>
+      </c>
+      <c r="L34" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="M34" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="N34" s="61">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O34" s="61">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S34" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="T34" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="61">
+        <v>4</v>
+      </c>
+      <c r="G35" s="61">
+        <v>15</v>
+      </c>
+      <c r="I35" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="J35" s="61">
+        <v>6</v>
+      </c>
+      <c r="K35" s="61">
+        <v>6</v>
+      </c>
+      <c r="L35" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="M35" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="N35" s="61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="61">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q35" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="R35" s="61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="61">
+        <v>4</v>
+      </c>
+      <c r="G36" s="61">
+        <v>15</v>
+      </c>
+      <c r="I36" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" s="61">
+        <v>6</v>
+      </c>
+      <c r="K36" s="61">
+        <v>6</v>
+      </c>
+      <c r="L36" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="M36" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="N36" s="61">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O36" s="61">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S36" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="T36" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="61">
+        <v>4</v>
+      </c>
+      <c r="G37" s="61">
+        <v>15</v>
+      </c>
+      <c r="I37" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="61">
+        <v>6</v>
+      </c>
+      <c r="K37" s="61">
+        <v>6</v>
+      </c>
+      <c r="L37" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="M37" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="N37" s="61">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O37" s="61">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="R37" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="S37" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="61">
+        <v>4</v>
+      </c>
+      <c r="G38" s="61">
+        <v>16</v>
+      </c>
+      <c r="I38" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" s="61">
+        <v>7</v>
+      </c>
+      <c r="K38" s="61">
+        <v>7</v>
+      </c>
+      <c r="L38" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="M38" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="N38" s="61">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O38" s="61">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S38" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="T38" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="61">
+        <v>4</v>
+      </c>
+      <c r="G39" s="61">
+        <v>16</v>
+      </c>
+      <c r="I39" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="J39" s="61">
+        <v>7</v>
+      </c>
+      <c r="K39" s="61">
+        <v>7</v>
+      </c>
+      <c r="L39" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="M39" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="N39" s="61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O39" s="61">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q39" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="R39" s="61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="61">
+        <v>4</v>
+      </c>
+      <c r="G40" s="61">
+        <v>16</v>
+      </c>
+      <c r="I40" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="J40" s="61">
+        <v>7</v>
+      </c>
+      <c r="K40" s="61">
+        <v>7</v>
+      </c>
+      <c r="L40" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="M40" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="N40" s="61">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O40" s="61">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S40" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="T40" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M40"/>
   <sortState ref="A20:I40">
     <sortCondition ref="G2:G19"/>
     <sortCondition ref="A2:A19"/>
@@ -2460,15 +4322,16 @@
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L22"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2686,38 +4549,38 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35">
+      <c r="A6" s="27">
         <v>1</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="36">
-        <v>4</v>
-      </c>
-      <c r="G6" s="36">
+      <c r="F6" s="28">
+        <v>4</v>
+      </c>
+      <c r="G6" s="28">
         <v>11</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="28"/>
+      <c r="I6" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="36">
-        <v>2</v>
-      </c>
-      <c r="L6" s="36">
+      <c r="J6" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="28">
+        <v>2</v>
+      </c>
+      <c r="L6" s="28">
         <v>1</v>
       </c>
       <c r="Q6">
@@ -2798,38 +4661,38 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="40">
+      <c r="A9" s="32">
         <v>1</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="36">
-        <v>4</v>
-      </c>
-      <c r="G9" s="36">
+      <c r="F9" s="28">
+        <v>4</v>
+      </c>
+      <c r="G9" s="28">
         <v>12</v>
       </c>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="36">
+      <c r="J9" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="28">
         <v>3</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="28">
         <v>3</v>
       </c>
     </row>
@@ -2904,38 +4767,38 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="40">
+      <c r="A12" s="32">
         <v>1</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="36">
-        <v>4</v>
-      </c>
-      <c r="G12" s="36">
+      <c r="F12" s="28">
+        <v>4</v>
+      </c>
+      <c r="G12" s="28">
         <v>13</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36" t="s">
+      <c r="H12" s="28"/>
+      <c r="I12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="36">
-        <v>4</v>
-      </c>
-      <c r="L12" s="36">
+      <c r="J12" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="28">
+        <v>4</v>
+      </c>
+      <c r="L12" s="28">
         <v>4</v>
       </c>
     </row>
@@ -3010,38 +4873,38 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="44">
+      <c r="A15" s="36">
         <v>1</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="36">
-        <v>4</v>
-      </c>
-      <c r="G15" s="36">
+      <c r="F15" s="28">
+        <v>4</v>
+      </c>
+      <c r="G15" s="28">
         <v>14</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36" t="s">
+      <c r="H15" s="28"/>
+      <c r="I15" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="36">
+      <c r="J15" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="28">
         <v>5</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="28">
         <v>6</v>
       </c>
     </row>
@@ -3116,38 +4979,38 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="44">
+      <c r="A18" s="36">
         <v>1</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="36">
-        <v>4</v>
-      </c>
-      <c r="G18" s="36">
+      <c r="F18" s="28">
+        <v>4</v>
+      </c>
+      <c r="G18" s="28">
         <v>15</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36" t="s">
+      <c r="H18" s="28"/>
+      <c r="I18" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="36">
+      <c r="J18" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="28">
         <v>6</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="28">
         <v>5</v>
       </c>
     </row>
@@ -3302,7 +5165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -3366,7 +5229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -3383,22 +5246,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="66"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -3632,11 +5495,11 @@
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/file/datasrc.xlsx
+++ b/file/datasrc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\users\ben\Documents\GitHub\lectcalGen\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyk\lectCalGen\lectcalGen\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17415" windowHeight="9885" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17412" windowHeight="9888" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="38" r:id="rId1"/>
@@ -19,15 +19,15 @@
     <sheet name="15护34" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$M$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$N$40</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterate="1"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="108">
   <si>
     <t>课表信息</t>
   </si>
@@ -549,6 +549,10 @@
   </si>
   <si>
     <t>5至8节</t>
+  </si>
+  <si>
+    <t>wkDayNum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -823,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,6 +1014,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1034,7 +1041,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,23 +1357,23 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="5.375" customWidth="1"/>
-    <col min="7" max="7" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="4.875" customWidth="1"/>
-    <col min="9" max="9" width="5.375" customWidth="1"/>
-    <col min="10" max="10" width="5.875" customWidth="1"/>
-    <col min="11" max="11" width="5.75" customWidth="1"/>
+    <col min="6" max="6" width="5.3984375" customWidth="1"/>
+    <col min="7" max="7" width="4.69921875" customWidth="1"/>
+    <col min="8" max="8" width="4.8984375" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" customWidth="1"/>
+    <col min="10" max="10" width="5.8984375" customWidth="1"/>
+    <col min="11" max="11" width="5.69921875" customWidth="1"/>
     <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>58</v>
       </c>
@@ -1407,7 +1414,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>49</v>
       </c>
@@ -1433,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>49</v>
       </c>
@@ -1459,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>49</v>
       </c>
@@ -1485,7 +1492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>49</v>
       </c>
@@ -1511,7 +1518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>54</v>
       </c>
@@ -1537,7 +1544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>49</v>
       </c>
@@ -1563,7 +1570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>54</v>
       </c>
@@ -1589,7 +1596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>49</v>
       </c>
@@ -1615,7 +1622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>54</v>
       </c>
@@ -1641,7 +1648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>49</v>
       </c>
@@ -1667,7 +1674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>53</v>
       </c>
@@ -1693,7 +1700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>49</v>
       </c>
@@ -1719,7 +1726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>53</v>
       </c>
@@ -1745,7 +1752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>49</v>
       </c>
@@ -1771,7 +1778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>53</v>
       </c>
@@ -1797,7 +1804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>49</v>
       </c>
@@ -1823,7 +1830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>53</v>
       </c>
@@ -1849,7 +1856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>49</v>
       </c>
@@ -1875,7 +1882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>49</v>
       </c>
@@ -1914,7 +1921,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>52</v>
       </c>
@@ -1952,7 +1959,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>54</v>
       </c>
@@ -1991,7 +1998,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>49</v>
       </c>
@@ -2029,7 +2036,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>49</v>
       </c>
@@ -2068,7 +2075,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>52</v>
       </c>
@@ -2106,7 +2113,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>49</v>
       </c>
@@ -2144,7 +2151,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>49</v>
       </c>
@@ -2183,7 +2190,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>52</v>
       </c>
@@ -2221,7 +2228,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>49</v>
       </c>
@@ -2259,7 +2266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>49</v>
       </c>
@@ -2298,7 +2305,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
         <v>52</v>
       </c>
@@ -2336,7 +2343,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="55" t="s">
         <v>49</v>
       </c>
@@ -2374,7 +2381,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
         <v>49</v>
       </c>
@@ -2413,7 +2420,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55" t="s">
         <v>52</v>
       </c>
@@ -2451,7 +2458,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55" t="s">
         <v>49</v>
       </c>
@@ -2489,7 +2496,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>49</v>
       </c>
@@ -2528,7 +2535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="59" t="s">
         <v>52</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="59" t="s">
         <v>49</v>
       </c>
@@ -2604,7 +2611,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
         <v>49</v>
       </c>
@@ -2643,7 +2650,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59" t="s">
         <v>52</v>
       </c>
@@ -2690,1635 +2697,1794 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="5.375" customWidth="1"/>
-    <col min="7" max="7" width="4.75" customWidth="1"/>
-    <col min="8" max="8" width="4.875" customWidth="1"/>
-    <col min="9" max="9" width="5.375" customWidth="1"/>
-    <col min="10" max="10" width="5.875" customWidth="1"/>
-    <col min="11" max="11" width="5.75" customWidth="1"/>
-    <col min="12" max="13" width="9" customWidth="1"/>
+    <col min="1" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="5.3984375" customWidth="1"/>
+    <col min="8" max="8" width="4.69921875" customWidth="1"/>
+    <col min="9" max="9" width="4.8984375" customWidth="1"/>
+    <col min="10" max="10" width="5.3984375" customWidth="1"/>
+    <col min="11" max="11" width="5.8984375" customWidth="1"/>
+    <col min="12" max="12" width="5.69921875" customWidth="1"/>
+    <col min="13" max="14" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="71">
+        <f>FIND(A2,"一二三四五六七八九")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="F2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
       <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="71">
+        <f>FIND(A3,"一二三四五六七八九")</f>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
       <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
         <v>7</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="71">
+        <f>FIND(A4,"一二三四五六七八九")</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
       <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="71">
+        <f>FIND(A5,"一二三四五六七八九")</f>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D5" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="F5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>9</v>
       </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="71">
+        <f>FIND(A6,"一二三四五六七八九")</f>
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="71">
+        <f>FIND(A7,"一二三四五六七八九")</f>
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="I7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="71">
+        <f>FIND(A8,"一二三四五六七八九")</f>
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D8" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F8" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="71">
+        <f>FIND(A9,"一二三四五六七八九")</f>
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>11</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="71">
+        <f>FIND(A10,"一二三四五六七八九")</f>
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="71">
+        <f>FIND(A11,"一二三四五六七八九")</f>
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="20" t="s">
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="71">
+        <f>FIND(A12,"一二三四五六七八九")</f>
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="E12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>13</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="71">
+        <f>FIND(A13,"一二三四五六七八九")</f>
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="71">
+        <f>FIND(A14,"一二三四五六七八九")</f>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="F14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="71">
+        <f>FIND(A15,"一二三四五六七八九")</f>
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="E15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>12</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>12</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>13</v>
-      </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>13</v>
-      </c>
-      <c r="H13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>14</v>
-      </c>
-      <c r="H14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
       <c r="G15">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="71">
+        <f>FIND(A16,"一二三四五六七八九")</f>
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="D16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
+      <c r="E16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="71">
+        <f>FIND(A17,"一二三四五六七八九")</f>
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="71">
+        <f>FIND(A18,"一二三四五六七八九")</f>
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
-      </c>
-      <c r="H17">
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="21" t="s">
+      <c r="I18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="71">
+        <f>FIND(A19,"一二三四五六七八九")</f>
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="D19" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18">
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
         <v>16</v>
       </c>
-      <c r="H18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>16</v>
-      </c>
-      <c r="H19">
+      <c r="I19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="71">
+        <f t="shared" ref="B3:B40" si="0">FIND(A20,"一二三四五六七八九")</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="D20" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="61" t="s">
+      <c r="E20" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="F20" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="61">
-        <v>4</v>
-      </c>
       <c r="G20" s="61">
+        <v>4</v>
+      </c>
+      <c r="H20" s="61">
         <v>10</v>
       </c>
-      <c r="I20" s="61" t="s">
+      <c r="J20" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="61">
-        <v>1</v>
-      </c>
       <c r="K20" s="61">
-        <v>2</v>
-      </c>
-      <c r="L20" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="61">
+        <v>2</v>
+      </c>
+      <c r="M20" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="M20" s="61" t="s">
+      <c r="N20" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="N20" s="61">
-        <f t="shared" ref="N20:O26" si="0">MATCH(L20,$Q20:$T20,0)</f>
-        <v>1</v>
-      </c>
       <c r="O20" s="61">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q20" s="61" t="s">
+        <f t="shared" ref="O20:P26" si="1">MATCH(M20,$R20:$U20,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P20" s="61">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R20" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="R20" s="61" t="s">
+      <c r="S20" s="61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C21" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="D21" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="61" t="s">
+      <c r="E21" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="61" t="s">
+      <c r="F21" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="61">
-        <v>4</v>
-      </c>
       <c r="G21" s="61">
+        <v>4</v>
+      </c>
+      <c r="H21" s="61">
         <v>10</v>
       </c>
-      <c r="I21" s="61" t="s">
+      <c r="J21" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="J21" s="61">
-        <v>1</v>
-      </c>
       <c r="K21" s="61">
-        <v>2</v>
-      </c>
-      <c r="L21" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="61">
+        <v>2</v>
+      </c>
+      <c r="M21" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="M21" s="61" t="s">
+      <c r="N21" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="N21" s="61">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="O21" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P21" s="61">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R21" s="61" t="s">
+      <c r="S21" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="S21" s="61" t="s">
+      <c r="T21" s="61" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="71">
+        <f>FIND(A22,"一二三四五六七八九")</f>
+        <v>4</v>
+      </c>
+      <c r="C22" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="D22" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="61" t="s">
+      <c r="E22" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="F22" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="61">
-        <v>4</v>
-      </c>
       <c r="G22" s="61">
+        <v>4</v>
+      </c>
+      <c r="H22" s="61">
         <v>10</v>
       </c>
-      <c r="I22" s="61" t="s">
+      <c r="J22" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="J22" s="61">
-        <v>1</v>
-      </c>
       <c r="K22" s="61">
-        <v>2</v>
-      </c>
-      <c r="L22" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="61">
+        <v>2</v>
+      </c>
+      <c r="M22" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M22" s="61" t="s">
+      <c r="N22" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="N22" s="61">
+      <c r="O22" s="61">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P22" s="61">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T22" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="U22" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="71">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="O22" s="61">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="S22" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="T22" s="61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="D23" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="E23" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="F23" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="61">
-        <v>4</v>
-      </c>
       <c r="G23" s="61">
+        <v>4</v>
+      </c>
+      <c r="H23" s="61">
         <v>11</v>
       </c>
-      <c r="I23" s="61" t="s">
+      <c r="J23" s="61" t="s">
         <v>103</v>
-      </c>
-      <c r="J23" s="61">
-        <v>3</v>
       </c>
       <c r="K23" s="61">
         <v>3</v>
       </c>
-      <c r="L23" s="61" t="s">
+      <c r="L23" s="61">
+        <v>3</v>
+      </c>
+      <c r="M23" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="M23" s="61" t="s">
+      <c r="N23" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="N23" s="61">
+      <c r="O23" s="61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P23" s="61">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R23" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="U23" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O23" s="61">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q23" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="T23" s="61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="61" t="s">
+      <c r="C24" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="D24" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="61" t="s">
+      <c r="E24" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="F24" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="61">
-        <v>4</v>
-      </c>
       <c r="G24" s="61">
+        <v>4</v>
+      </c>
+      <c r="H24" s="61">
         <v>11</v>
       </c>
-      <c r="I24" s="61" t="s">
+      <c r="J24" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="J24" s="61">
-        <v>2</v>
-      </c>
       <c r="K24" s="61">
-        <v>1</v>
-      </c>
-      <c r="L24" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="61">
+        <v>1</v>
+      </c>
+      <c r="M24" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="M24" s="61" t="s">
+      <c r="N24" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="N24" s="61">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="O24" s="61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P24" s="61">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="R24" s="61" t="s">
+      <c r="S24" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="61" t="s">
+      <c r="T24" s="61" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C25" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="D25" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="E25" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="F25" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="61">
-        <v>4</v>
-      </c>
       <c r="G25" s="61">
+        <v>4</v>
+      </c>
+      <c r="H25" s="61">
         <v>11</v>
       </c>
-      <c r="I25" s="61" t="s">
+      <c r="J25" s="61" t="s">
         <v>105</v>
-      </c>
-      <c r="J25" s="61">
-        <v>3</v>
       </c>
       <c r="K25" s="61">
         <v>3</v>
       </c>
-      <c r="L25" s="61" t="s">
+      <c r="L25" s="61">
+        <v>3</v>
+      </c>
+      <c r="M25" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="M25" s="61" t="s">
+      <c r="N25" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="N25" s="61">
+      <c r="O25" s="61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P25" s="61">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R25" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="S25" s="61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="71">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O25" s="61">
+      <c r="C26" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="61">
+        <v>4</v>
+      </c>
+      <c r="H26" s="61">
+        <v>12</v>
+      </c>
+      <c r="J26" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26" s="61">
+        <v>4</v>
+      </c>
+      <c r="L26" s="61">
+        <v>4</v>
+      </c>
+      <c r="M26" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="N26" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="61">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P26" s="61">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="S26" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="T26" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="71">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q25" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="61">
+        <v>4</v>
+      </c>
+      <c r="H27" s="61">
+        <v>12</v>
+      </c>
+      <c r="J27" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="61">
+        <v>2</v>
+      </c>
+      <c r="L27" s="61">
+        <v>1</v>
+      </c>
+      <c r="M27" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="R25" s="61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="61">
-        <v>4</v>
-      </c>
-      <c r="G26" s="61">
-        <v>12</v>
-      </c>
-      <c r="I26" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" s="61">
-        <v>4</v>
-      </c>
-      <c r="K26" s="61">
-        <v>4</v>
-      </c>
-      <c r="L26" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="M26" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="N26" s="61">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O26" s="61">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="R26" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="S26" s="61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" s="61">
-        <v>4</v>
-      </c>
-      <c r="G27" s="61">
-        <v>12</v>
-      </c>
-      <c r="I27" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="J27" s="61">
-        <v>2</v>
-      </c>
-      <c r="K27" s="61">
-        <v>1</v>
-      </c>
-      <c r="L27" s="61" t="s">
+      <c r="N27" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="O27" s="61">
+        <f t="shared" ref="O27:O40" si="2">MATCH(M27,$R27:$U27,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P27" s="61">
+        <f t="shared" ref="P27:P40" si="3">MATCH(N27,$R27:$U27,0)</f>
+        <v>4</v>
+      </c>
+      <c r="R27" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="M27" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="N27" s="61">
-        <f t="shared" ref="N27:N40" si="1">MATCH(L27,$Q27:$T27,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O27" s="61">
-        <f t="shared" ref="O27:O40" si="2">MATCH(M27,$Q27:$T27,0)</f>
-        <v>4</v>
-      </c>
-      <c r="Q27" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="T27" s="61" t="s">
+      <c r="U27" s="61" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="70" t="s">
+      <c r="B28" s="71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C28" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="D28" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="E28" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="F28" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="61">
-        <v>4</v>
-      </c>
       <c r="G28" s="61">
+        <v>4</v>
+      </c>
+      <c r="H28" s="61">
         <v>12</v>
       </c>
-      <c r="I28" s="61" t="s">
+      <c r="J28" s="61" t="s">
         <v>104</v>
-      </c>
-      <c r="J28" s="61">
-        <v>3</v>
       </c>
       <c r="K28" s="61">
         <v>3</v>
       </c>
-      <c r="L28" s="61" t="s">
+      <c r="L28" s="61">
+        <v>3</v>
+      </c>
+      <c r="M28" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="M28" s="61" t="s">
+      <c r="N28" s="61" t="s">
         <v>83</v>
-      </c>
-      <c r="N28" s="61">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="O28" s="61">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q28" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" s="61">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R28" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="R28" s="61" t="s">
+      <c r="S28" s="61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="D29" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="61" t="s">
+      <c r="E29" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="F29" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="61">
-        <v>4</v>
-      </c>
       <c r="G29" s="61">
+        <v>4</v>
+      </c>
+      <c r="H29" s="61">
         <v>13</v>
       </c>
-      <c r="I29" s="61" t="s">
+      <c r="J29" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="J29" s="61">
-        <v>4</v>
-      </c>
       <c r="K29" s="61">
         <v>4</v>
       </c>
-      <c r="L29" s="61" t="s">
+      <c r="L29" s="61">
+        <v>4</v>
+      </c>
+      <c r="M29" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="M29" s="61" t="s">
+      <c r="N29" s="61" t="s">
         <v>102</v>
-      </c>
-      <c r="N29" s="61">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="O29" s="61">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Q29" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="61">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R29" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="T29" s="61" t="s">
+      <c r="U29" s="61" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C30" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="D30" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="E30" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="F30" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="61">
-        <v>4</v>
-      </c>
       <c r="G30" s="61">
+        <v>4</v>
+      </c>
+      <c r="H30" s="61">
         <v>13</v>
       </c>
-      <c r="I30" s="61" t="s">
+      <c r="J30" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="J30" s="61">
-        <v>2</v>
-      </c>
       <c r="K30" s="61">
-        <v>1</v>
-      </c>
-      <c r="L30" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="61">
+        <v>1</v>
+      </c>
+      <c r="M30" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="M30" s="61" t="s">
+      <c r="N30" s="61" t="s">
         <v>101</v>
-      </c>
-      <c r="N30" s="61">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
       <c r="O30" s="61">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P30" s="61">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R30" s="61" t="s">
+      <c r="S30" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="S30" s="61" t="s">
+      <c r="T30" s="61" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C31" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="D31" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="61" t="s">
+      <c r="E31" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="F31" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="61">
-        <v>4</v>
-      </c>
       <c r="G31" s="61">
+        <v>4</v>
+      </c>
+      <c r="H31" s="61">
         <v>13</v>
       </c>
-      <c r="I31" s="61" t="s">
+      <c r="J31" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="J31" s="61">
-        <v>4</v>
-      </c>
       <c r="K31" s="61">
         <v>4</v>
       </c>
-      <c r="L31" s="61" t="s">
+      <c r="L31" s="61">
+        <v>4</v>
+      </c>
+      <c r="M31" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="M31" s="61" t="s">
+      <c r="N31" s="61" t="s">
         <v>102</v>
-      </c>
-      <c r="N31" s="61">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="O31" s="61">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Q31" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="P31" s="61">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R31" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="T31" s="61" t="s">
+      <c r="U31" s="61" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="70" t="s">
+      <c r="B32" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C32" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="D32" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="61" t="s">
+      <c r="E32" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="F32" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="61">
-        <v>4</v>
-      </c>
       <c r="G32" s="61">
+        <v>4</v>
+      </c>
+      <c r="H32" s="61">
         <v>14</v>
       </c>
-      <c r="I32" s="61" t="s">
+      <c r="J32" s="61" t="s">
         <v>99</v>
-      </c>
-      <c r="J32" s="61">
-        <v>5</v>
       </c>
       <c r="K32" s="61">
         <v>5</v>
       </c>
-      <c r="L32" s="61" t="s">
+      <c r="L32" s="61">
+        <v>5</v>
+      </c>
+      <c r="M32" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="M32" s="61" t="s">
+      <c r="N32" s="61" t="s">
         <v>101</v>
-      </c>
-      <c r="N32" s="61">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
       <c r="O32" s="61">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P32" s="61">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R32" s="61" t="s">
+      <c r="S32" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="S32" s="61" t="s">
+      <c r="T32" s="61" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="D33" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="E33" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="F33" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="61">
-        <v>4</v>
-      </c>
       <c r="G33" s="61">
+        <v>4</v>
+      </c>
+      <c r="H33" s="61">
         <v>14</v>
       </c>
-      <c r="I33" s="61" t="s">
+      <c r="J33" s="61" t="s">
         <v>98</v>
-      </c>
-      <c r="J33" s="61">
-        <v>5</v>
       </c>
       <c r="K33" s="61">
         <v>5</v>
       </c>
-      <c r="L33" s="61" t="s">
+      <c r="L33" s="61">
+        <v>5</v>
+      </c>
+      <c r="M33" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="M33" s="61" t="s">
+      <c r="N33" s="61" t="s">
         <v>102</v>
-      </c>
-      <c r="N33" s="61">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="O33" s="61">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Q33" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="P33" s="61">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="R33" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="T33" s="61" t="s">
+      <c r="U33" s="61" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="70" t="s">
+      <c r="B34" s="71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C34" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="D34" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="61" t="s">
+      <c r="E34" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="F34" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="61">
-        <v>4</v>
-      </c>
       <c r="G34" s="61">
+        <v>4</v>
+      </c>
+      <c r="H34" s="61">
         <v>14</v>
       </c>
-      <c r="I34" s="61" t="s">
+      <c r="J34" s="61" t="s">
         <v>63</v>
-      </c>
-      <c r="J34" s="61">
-        <v>5</v>
       </c>
       <c r="K34" s="61">
         <v>5</v>
       </c>
-      <c r="L34" s="61" t="s">
+      <c r="L34" s="61">
+        <v>5</v>
+      </c>
+      <c r="M34" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M34" s="61" t="s">
+      <c r="N34" s="61" t="s">
         <v>102</v>
-      </c>
-      <c r="N34" s="61">
-        <f t="shared" si="1"/>
-        <v>3</v>
       </c>
       <c r="O34" s="61">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="S34" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="61">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T34" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="T34" s="61" t="s">
+      <c r="U34" s="61" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C35" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="D35" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="61" t="s">
+      <c r="E35" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="F35" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="61">
-        <v>4</v>
-      </c>
       <c r="G35" s="61">
+        <v>4</v>
+      </c>
+      <c r="H35" s="61">
         <v>15</v>
       </c>
-      <c r="I35" s="61" t="s">
+      <c r="J35" s="61" t="s">
         <v>99</v>
-      </c>
-      <c r="J35" s="61">
-        <v>6</v>
       </c>
       <c r="K35" s="61">
         <v>6</v>
       </c>
-      <c r="L35" s="61" t="s">
+      <c r="L35" s="61">
+        <v>6</v>
+      </c>
+      <c r="M35" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="M35" s="61" t="s">
+      <c r="N35" s="61" t="s">
         <v>83</v>
-      </c>
-      <c r="N35" s="61">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="O35" s="61">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q35" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="P35" s="61">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R35" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="R35" s="61" t="s">
+      <c r="S35" s="61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C36" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="D36" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="61" t="s">
+      <c r="E36" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="F36" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="61">
-        <v>4</v>
-      </c>
       <c r="G36" s="61">
+        <v>4</v>
+      </c>
+      <c r="H36" s="61">
         <v>15</v>
       </c>
-      <c r="I36" s="61" t="s">
+      <c r="J36" s="61" t="s">
         <v>98</v>
-      </c>
-      <c r="J36" s="61">
-        <v>6</v>
       </c>
       <c r="K36" s="61">
         <v>6</v>
       </c>
-      <c r="L36" s="61" t="s">
+      <c r="L36" s="61">
+        <v>6</v>
+      </c>
+      <c r="M36" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M36" s="61" t="s">
+      <c r="N36" s="61" t="s">
         <v>102</v>
-      </c>
-      <c r="N36" s="61">
-        <f t="shared" si="1"/>
-        <v>3</v>
       </c>
       <c r="O36" s="61">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="S36" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="P36" s="61">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T36" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="T36" s="61" t="s">
+      <c r="U36" s="61" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="D37" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="61" t="s">
+      <c r="E37" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="F37" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="61">
-        <v>4</v>
-      </c>
       <c r="G37" s="61">
+        <v>4</v>
+      </c>
+      <c r="H37" s="61">
         <v>15</v>
       </c>
-      <c r="I37" s="61" t="s">
+      <c r="J37" s="61" t="s">
         <v>63</v>
-      </c>
-      <c r="J37" s="61">
-        <v>6</v>
       </c>
       <c r="K37" s="61">
         <v>6</v>
       </c>
-      <c r="L37" s="61" t="s">
+      <c r="L37" s="61">
+        <v>6</v>
+      </c>
+      <c r="M37" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="M37" s="61" t="s">
+      <c r="N37" s="61" t="s">
         <v>101</v>
-      </c>
-      <c r="N37" s="61">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
       <c r="O37" s="61">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="P37" s="61">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="R37" s="61" t="s">
+      <c r="S37" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="S37" s="61" t="s">
+      <c r="T37" s="61" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="70" t="s">
+      <c r="B38" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C38" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="D38" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="61" t="s">
+      <c r="E38" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="F38" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="61">
-        <v>4</v>
-      </c>
       <c r="G38" s="61">
+        <v>4</v>
+      </c>
+      <c r="H38" s="61">
         <v>16</v>
       </c>
-      <c r="I38" s="61" t="s">
+      <c r="J38" s="61" t="s">
         <v>98</v>
-      </c>
-      <c r="J38" s="61">
-        <v>7</v>
       </c>
       <c r="K38" s="61">
         <v>7</v>
       </c>
-      <c r="L38" s="61" t="s">
+      <c r="L38" s="61">
+        <v>7</v>
+      </c>
+      <c r="M38" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M38" s="61" t="s">
+      <c r="N38" s="61" t="s">
         <v>102</v>
-      </c>
-      <c r="N38" s="61">
-        <f t="shared" si="1"/>
-        <v>3</v>
       </c>
       <c r="O38" s="61">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="S38" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="61">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T38" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="T38" s="61" t="s">
+      <c r="U38" s="61" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="71">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C39" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="D39" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="E39" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="F39" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F39" s="61">
-        <v>4</v>
-      </c>
       <c r="G39" s="61">
+        <v>4</v>
+      </c>
+      <c r="H39" s="61">
         <v>16</v>
       </c>
-      <c r="I39" s="61" t="s">
+      <c r="J39" s="61" t="s">
         <v>103</v>
-      </c>
-      <c r="J39" s="61">
-        <v>7</v>
       </c>
       <c r="K39" s="61">
         <v>7</v>
       </c>
-      <c r="L39" s="61" t="s">
+      <c r="L39" s="61">
+        <v>7</v>
+      </c>
+      <c r="M39" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="M39" s="61" t="s">
+      <c r="N39" s="61" t="s">
         <v>83</v>
-      </c>
-      <c r="N39" s="61">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
       <c r="O39" s="61">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q39" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="P39" s="61">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="R39" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="R39" s="61" t="s">
+      <c r="S39" s="61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="70" t="s">
+      <c r="B40" s="71">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C40" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="61" t="s">
+      <c r="D40" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="E40" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="61" t="s">
+      <c r="F40" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="61">
-        <v>4</v>
-      </c>
       <c r="G40" s="61">
+        <v>4</v>
+      </c>
+      <c r="H40" s="61">
         <v>16</v>
       </c>
-      <c r="I40" s="61" t="s">
+      <c r="J40" s="61" t="s">
         <v>63</v>
-      </c>
-      <c r="J40" s="61">
-        <v>7</v>
       </c>
       <c r="K40" s="61">
         <v>7</v>
       </c>
-      <c r="L40" s="61" t="s">
+      <c r="L40" s="61">
+        <v>7</v>
+      </c>
+      <c r="M40" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M40" s="61" t="s">
+      <c r="N40" s="61" t="s">
         <v>102</v>
-      </c>
-      <c r="N40" s="61">
-        <f t="shared" si="1"/>
-        <v>3</v>
       </c>
       <c r="O40" s="61">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="S40" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="P40" s="61">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="T40" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="T40" s="61" t="s">
+      <c r="U40" s="61" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M40"/>
-  <sortState ref="A20:I40">
-    <sortCondition ref="G2:G19"/>
-    <sortCondition ref="A2:A19"/>
+  <autoFilter ref="A1:N40"/>
+  <sortState ref="A2:H19">
+    <sortCondition ref="H2:H19"/>
     <sortCondition ref="B2:B19"/>
+    <sortCondition ref="C2:C19"/>
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4334,13 +4500,13 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>58</v>
       </c>
@@ -4384,7 +4550,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -4425,7 +4591,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -4466,7 +4632,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>4</v>
       </c>
@@ -4507,7 +4673,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>1</v>
       </c>
@@ -4548,7 +4714,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>1</v>
       </c>
@@ -4590,7 +4756,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>2</v>
       </c>
@@ -4625,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -4660,7 +4826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32">
         <v>1</v>
       </c>
@@ -4696,7 +4862,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -4731,7 +4897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>1</v>
       </c>
@@ -4766,7 +4932,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32">
         <v>1</v>
       </c>
@@ -4802,7 +4968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>2</v>
       </c>
@@ -4837,7 +5003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>1</v>
       </c>
@@ -4872,7 +5038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <v>1</v>
       </c>
@@ -4908,7 +5074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>2</v>
       </c>
@@ -4943,7 +5109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>1</v>
       </c>
@@ -4978,7 +5144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <v>1</v>
       </c>
@@ -5014,7 +5180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>2</v>
       </c>
@@ -5049,7 +5215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>1</v>
       </c>
@@ -5084,7 +5250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>1</v>
       </c>
@@ -5119,7 +5285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>2</v>
       </c>
@@ -5173,9 +5339,9 @@
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -5183,7 +5349,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -5191,7 +5357,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5199,7 +5365,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -5207,7 +5373,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -5215,7 +5381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -5237,33 +5403,33 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="2" max="2" width="10.09765625" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="66"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5271,7 +5437,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -5279,7 +5445,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5287,7 +5453,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -5295,7 +5461,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5309,7 +5475,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5323,7 +5489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -5333,7 +5499,7 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -5341,7 +5507,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -5349,7 +5515,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -5357,7 +5523,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -5365,7 +5531,7 @@
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -5373,7 +5539,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -5381,7 +5547,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -5389,7 +5555,7 @@
       <c r="C16" s="13"/>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -5399,7 +5565,7 @@
       </c>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
@@ -5407,7 +5573,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -5415,7 +5581,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -5423,7 +5589,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -5431,7 +5597,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -5439,7 +5605,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -5453,7 +5619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -5467,7 +5633,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -5475,7 +5641,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
@@ -5483,7 +5649,7 @@
       <c r="C26" s="13"/>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -5491,15 +5657,15 @@
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="3">
